--- a/C#/material/test/test report (자동 저장됨) (복구됨).xlsx
+++ b/C#/material/test/test report (자동 저장됨) (복구됨).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -17,118 +17,117 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2테스트내용'!$A$3:$B$73</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="153">
   <si>
     <t>테스트 내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>기능 ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>새 처방전 만들수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처리하고 있는 처방전이 있는 경우는 warning 대화창을 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처리하고 있는 처방전이 있는 경우는 그 처방전을 저장하고 새 처방전 만들 것이 됩니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 정보와 환자에 대한 진단결과등 필요한 정보를 입력해야 하는 제약있 설치됐습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>총 투약 일수의 TextBox에 숫짜만 입력할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1회 투약 량의 TextBox에 숫짜만 입력할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>아침 시간에 약을 먹는지에 대한 CheckBox를 Click한 후에 1일 투약 회수의 TextBox에 있는 숫짜에 대한 증가와 감소를 하는 event가 발생할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>점심 시간에 약을 먹는지에 대한 CheckBox를 Click한 후에 1일 투약 회수의 TextBox에 있는 숫짜에 대한 증가와 감소를 하는 event가 발생할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>저녁 시간에 약을 먹는지에 대한 CheckBox를 Click한 후에 1일 투약 회수의 TextBox에 있는 숫짜에 대한 증가와 감소를 하는 event가 발생할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품에 대한 Search할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 Search button를 click한 후에 Search화면이 나타날 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품선택한 후에 약품 명칭과 약품 ID의 TextBox들에 맞은 내용을 사용자에게 보여줄 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010102</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[수정기능]Can user modify a drug information in the drug information list?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">[수정기능]수정 button를 click한 후에 수정 화면이 나타날 것입니까? Will there be a drug information update window when user clicks update button? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[수정기능]사용자가 약품 정보 수정 화면에 있는 Cancel button를 click하면 수정 처리를 Cancel할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010103</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">사용자가 처방전 내역을 xml file 형식으로 저장할 수 있습니까? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>환자 진단 결과와 처방약품 정보등 필요정보가 없을 경우에는 알림 창이 나타난 형식으로 저장처리를 저지할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010104</t>
   </si>
   <si>
     <t>입력된 처방약품 정보들을 List형식으로 display하는 것이 됐습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>입력된 처방약품 정보들을 사용자에게  정확하게 보여주는 효과가 됐습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010105</t>
@@ -138,7 +137,7 @@
   </si>
   <si>
     <t>처방전 정보를 입력하는 부분에 있는 Controller들에 입력된 내용이 있는지 없는지에 의해서 처방전을 처리하고 있는지 없는지 판단하는 기능이 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010107</t>
@@ -169,11 +168,11 @@
   </si>
   <si>
     <t>사용자가 입력된 약품정보를 약품정보에 insert할 때 insert 원하는 약품이 처방약품정보 list에 이미 있는지에 대한 중복 체크 기능이 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자가  insert 원하는 약품이 처방약품정보 list에 이미 있으면 알림창이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전-010108</t>
@@ -181,43 +180,43 @@
   <si>
     <t xml:space="preserve">사용자가 처방 약품 정보 list에 있는 어떤 처방 약품을 다른 약품으로 바꿀 경우에는 그 원하는 약품이 처방 약품 정보list에 이미 있는지에 대한 중복 체크 기능이 되었습니까? 
 When user is changing a drug in the drug information list to a new drug, can process check whether the new drug has already been the drug information list? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자가 다른 약품으로 바꿀 경우에는 그 약품 이미 처방 약품 정보 list에 이미 있으면 알림 창이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>모의-010200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">다음 button를 치면 환자 정보가 처방전 인터페이스 화면에 있는 TextBox에 나타날 수 있습니까? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>모의-010201</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방의료인들의 정보들을 저장된 xml file를 읽는 기능가 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>모의-010202</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>입력된 ID과 Password는 효력이 있는지 없는지에 대한 체크기능이 되었습니까? 즉, 효력이 없는 ID나 Password를 입력하고 로그인 하면 알림창이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인이 성공한 후에 처방전 인터페이스 화면이 나타났습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인이 성공한 후에 나타난 처방전 인터페이스 화면에 맞은 처방의료인의 정보를 사용자에게 보여주었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>모의-010203</t>
@@ -227,211 +226,364 @@
   </si>
   <si>
     <t xml:space="preserve">약품 등록 시스템에 등록된 약품 정보들을 저장된 xml file에서 약품 정보들을 load 할 수 있습니까? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 등록 시스템에 등록된 약품 정보들을 저장된 xml file에서 load 한 약품 정보들을 약품 search 화면에 list형식으로 사용자에게 정확하게 보여주는 효과가 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATA-010300</t>
   </si>
   <si>
     <t>약품ID의 형식이 표준적으로 됐습니까? (약품ID의 표준은 M100yyMMddHHmmss입니다)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 ID의 Format는 M100yyMMddHHmmss입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATA-010301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품의 1회 투약 량이 소수 이면 소수점 아래 자리끼만 입력할 수 있는 제약이 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DATA-010302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전 ID의 Format는 P100yyMMddHHmmss입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-통제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>입력된 data를 잘 display합니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>로그인 화면은 programming가 시작한 후의 먼저 나타나는 화면입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>사용자 처방전 인턴페이스 화면에 Exit한 후에 잘 나타납니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>암호를 넣는 경우에는 담당하는 TextBox에 입력받은 내용이 다 '*'로 표시합니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010301</t>
   </si>
   <si>
     <t>처방전 인턴페이스 화면에 환자 정보를 잘 표시합니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전 인턴페이스 화면에 처방의료인 정보를 잘 표시합니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전 인턴페이스 화면에 입력된 약품정보를 잘 표시합니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전 인턴페이스 화면에 처방 약품정보 list를 잘 구성했습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010301</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010302</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010303</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">약품 명치 TextBox에 아무것도 입력하지 않고 search하면 모든 약품들을 search 결과로 나타날 것입니까? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010304</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 선택 form의 Search 기능이 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 선택 form이 구성 됐습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>약품 선택 form에 선택된 약품의 정보를 처방전 인터페이스 form에 전달하여 처방전 인터페이스 form에 있는 맞은 Control들에 표시할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010305</t>
   </si>
   <si>
     <t>증가 button를 click하면 필요한 약품 정보를 처방 약품 정보 list안에 insert할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 각 row에 삭제 button과 수정 button를 잘 넣었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 어떤 row에 대한 수정 처리한 후에 처방 약품 정보 list인 DataGridView는 realtime로 update할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 어떤 row에 대한 삭제 처리한 후에 처방 약품 정보 list인 DataGridView는 realtime로 update할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010307</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 있는 어떤 row의 삭제 button를 이용하여 그 삭제 button 있는 row만 삭제할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 있는 어떤 row의 삭제 button를 click 하면 확인창이 나타날 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품 정보 list인 DataGridView안에 있는 어떤 row의 수정 button를 이용하여 그 수정 button 있는 row만 수정할 수 있습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010306</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010308</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방전 인터페이스 form에 있는 exit button를 치면 처방전 인터페이스 form가 없애고  login 화면이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처리고 있는 처방전이 있는 경우에 처방전 인터페이스 form에 있는 exit button를 치면 확인창이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>저장되지 않은 처방전이 있는 경우에 처방전 인터페이스 form에 있는 exit button를 치면 확인창이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처리고 있는 처방전이 있는 경우에 exit 확인창의 'Yes' button를 click한 후에 처방전 인터페이스 form가 없애고  login 화면이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>저장되지 않은 처방전이 있는 경우에  exit 확인창의 'Yes' button를 click한 후에 처방전 처방전을 저장하여 인터페이스 form가 없애고  login 화면이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>저장되지 않은 처방전이 있는 경우에  exit 확인창의 'No' button를 click한 후에 처방전 처방전을 저장하지 않고 인터페이스 form가 없애고  login 화면이 나타날 것입니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010309</t>
   </si>
   <si>
     <t xml:space="preserve">처방전을 처리하고 있는지에 대한 판단할 수 있습니까? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UI-010310</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>처방 약품에 대해서 증가, 수정, 삭제 처리한 후의 처방전을 저장처리 했지 안 했지에 대한 판단할 수 있는 기능이 되었습니까?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>By</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>결과(S/F)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Haoran Mei</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT-010101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FT-010102</t>
+  </si>
+  <si>
+    <t>FT-010103</t>
+  </si>
+  <si>
+    <t>FT-010104</t>
+  </si>
+  <si>
+    <t>FT-010105</t>
+  </si>
+  <si>
+    <t>FT-010106</t>
+  </si>
+  <si>
+    <t>FT-010107</t>
+  </si>
+  <si>
+    <t>FT-010108</t>
+  </si>
+  <si>
+    <t>FT-010109</t>
+  </si>
+  <si>
+    <t>FT-010110</t>
+  </si>
+  <si>
+    <t>FT-010111</t>
+  </si>
+  <si>
+    <t>FT-010112</t>
+  </si>
+  <si>
+    <t>FT-010113</t>
+  </si>
+  <si>
+    <t>FT-010114</t>
+  </si>
+  <si>
+    <t>FT-010115</t>
+  </si>
+  <si>
+    <t>FT-010116</t>
+  </si>
+  <si>
+    <t>FT-010117</t>
+  </si>
+  <si>
+    <t>FT-010118</t>
+  </si>
+  <si>
+    <t>FT-010119</t>
+  </si>
+  <si>
+    <t>FT-010120</t>
+  </si>
+  <si>
+    <t>FT-010121</t>
+  </si>
+  <si>
+    <t>FT-010122</t>
+  </si>
+  <si>
+    <t>FT-010123</t>
+  </si>
+  <si>
+    <t>FT-010124</t>
+  </si>
+  <si>
+    <t>FT-010125</t>
+  </si>
+  <si>
+    <t>FT-010126</t>
+  </si>
+  <si>
+    <t>사용자는 등록정보 입력할 수 있는 것임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록화면 잘 나오는 것임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Database과 잘 연결 할 수 있는 것임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 입력된 등록정보에 대한 체크</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MENU화면 잘 나오는 것</t>
+  </si>
+  <si>
+    <t>만든 된 처방전 파일들의 list를 잘 display하는 것</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사용자는 자기가 원하는 처방전을 선택 할 수 있는 것 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP는 사용자가 원하는 처방전의 정보를 load할 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP는 사용자가 원하는 처방전의 정보를 display 할 수 있는 것</t>
+  </si>
+  <si>
+    <t>PIP는 처방전 정보를 load된 WPF report를 생성할 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방전 report를 잘 나오는 것</t>
+  </si>
+  <si>
+    <t>문자크기가 적당한 것</t>
+  </si>
+  <si>
+    <t>사용자는 쉽게 이용 할 수 있는 것</t>
+  </si>
+  <si>
+    <t>PIP는 처방전 정보를 Database에 저장할 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP는 Local disk에 저장된 처방전파일을 Load 할 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP는 Load 된 처방전 파일들의 list를 만들 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIP는 파일 이름을 인식하는 것으로 Local disk에 저장된 처방전파일을 인식할 수 있는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 BUTTON를 통해서 각 화면 사이의 전환시키는 것</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,12 +593,20 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +683,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -573,72 +738,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="5" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
+    <cellStyle name="메모" xfId="5" builtinId="10"/>
     <cellStyle name="보통" xfId="4" builtinId="28"/>
     <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="통화 [0]" xfId="1" builtinId="7"/>
@@ -980,7 +1169,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1027,7 +1216,7 @@
       </c>
       <c r="C3" s="4">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1045,7 +1234,7 @@
       </c>
       <c r="C4" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -1063,7 +1252,7 @@
       </c>
       <c r="C5" s="3">
         <f t="shared" ref="C5:C68" ca="1" si="0">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -1081,7 +1270,7 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -1099,7 +1288,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -1117,7 +1306,7 @@
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -1135,7 +1324,7 @@
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1153,7 +1342,7 @@
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -1171,7 +1360,7 @@
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -1189,7 +1378,7 @@
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
@@ -1207,7 +1396,7 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -1225,7 +1414,7 @@
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -1243,7 +1432,7 @@
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1261,7 +1450,7 @@
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -1279,7 +1468,7 @@
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -1297,7 +1486,7 @@
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -1315,7 +1504,7 @@
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -1333,7 +1522,7 @@
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -1351,7 +1540,7 @@
       </c>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1369,7 +1558,7 @@
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
@@ -1387,7 +1576,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -1405,7 +1594,7 @@
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
@@ -1423,7 +1612,7 @@
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
@@ -1441,7 +1630,7 @@
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1459,7 +1648,7 @@
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -1477,7 +1666,7 @@
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D28" t="s">
         <v>106</v>
@@ -1495,7 +1684,7 @@
       </c>
       <c r="C29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D29" t="s">
         <v>106</v>
@@ -1513,7 +1702,7 @@
       </c>
       <c r="C30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D30" t="s">
         <v>106</v>
@@ -1531,7 +1720,7 @@
       </c>
       <c r="C31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D31" t="s">
         <v>106</v>
@@ -1549,7 +1738,7 @@
       </c>
       <c r="C32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D32" t="s">
         <v>106</v>
@@ -1567,7 +1756,7 @@
       </c>
       <c r="C33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D33" t="s">
         <v>106</v>
@@ -1585,7 +1774,7 @@
       </c>
       <c r="C34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D34" t="s">
         <v>106</v>
@@ -1603,7 +1792,7 @@
       </c>
       <c r="C35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D35" t="s">
         <v>106</v>
@@ -1621,7 +1810,7 @@
       </c>
       <c r="C36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D36" t="s">
         <v>106</v>
@@ -1639,7 +1828,7 @@
       </c>
       <c r="C37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D37" t="s">
         <v>106</v>
@@ -1657,7 +1846,7 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D38" t="s">
         <v>106</v>
@@ -1675,7 +1864,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D39" t="s">
         <v>106</v>
@@ -1693,7 +1882,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D40" t="s">
         <v>106</v>
@@ -1711,7 +1900,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D41" t="s">
         <v>106</v>
@@ -1729,7 +1918,7 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D42" t="s">
         <v>106</v>
@@ -1747,7 +1936,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D43" t="s">
         <v>106</v>
@@ -1765,7 +1954,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D44" t="s">
         <v>106</v>
@@ -1783,7 +1972,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D45" t="s">
         <v>106</v>
@@ -1801,7 +1990,7 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D46" t="s">
         <v>106</v>
@@ -1819,7 +2008,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D47" t="s">
         <v>106</v>
@@ -1837,7 +2026,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D48" t="s">
         <v>106</v>
@@ -1855,7 +2044,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D49" t="s">
         <v>106</v>
@@ -1873,7 +2062,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D50" t="s">
         <v>106</v>
@@ -1891,7 +2080,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D51" t="s">
         <v>106</v>
@@ -1909,7 +2098,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D52" t="s">
         <v>106</v>
@@ -1924,7 +2113,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D53" t="s">
         <v>106</v>
@@ -1942,7 +2131,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D54" t="s">
         <v>106</v>
@@ -1960,7 +2149,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D55" t="s">
         <v>106</v>
@@ -1978,7 +2167,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D56" t="s">
         <v>106</v>
@@ -1996,7 +2185,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D57" t="s">
         <v>106</v>
@@ -2014,7 +2203,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D58" t="s">
         <v>106</v>
@@ -2032,7 +2221,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D59" t="s">
         <v>106</v>
@@ -2050,7 +2239,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D60" t="s">
         <v>106</v>
@@ -2068,7 +2257,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D61" t="s">
         <v>106</v>
@@ -2086,7 +2275,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D62" t="s">
         <v>106</v>
@@ -2104,7 +2293,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D63" t="s">
         <v>106</v>
@@ -2122,7 +2311,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D64" t="s">
         <v>106</v>
@@ -2140,7 +2329,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D65" t="s">
         <v>106</v>
@@ -2158,7 +2347,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D66" t="s">
         <v>106</v>
@@ -2176,7 +2365,7 @@
       </c>
       <c r="C67" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D67" t="s">
         <v>106</v>
@@ -2194,7 +2383,7 @@
       </c>
       <c r="C68" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D68" t="s">
         <v>106</v>
@@ -2212,7 +2401,7 @@
       </c>
       <c r="C69" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D69" t="s">
         <v>106</v>
@@ -2230,7 +2419,7 @@
       </c>
       <c r="C70" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D70" t="s">
         <v>106</v>
@@ -2248,7 +2437,7 @@
       </c>
       <c r="C71" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D71" t="s">
         <v>106</v>
@@ -2266,7 +2455,7 @@
       </c>
       <c r="C72" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D72" t="s">
         <v>106</v>
@@ -2284,7 +2473,7 @@
       </c>
       <c r="C73" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D73" t="s">
         <v>106</v>
@@ -2297,7 +2486,7 @@
   <sortState ref="A3:B73">
     <sortCondition sortBy="cellColor" ref="A3:A73" dxfId="0"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A13:B13">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2311,6 +2500,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:B73">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2319,14 +2516,6 @@
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -2373,7 +2562,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2383,7 +2572,7 @@
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -2400,16 +2589,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>2</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="28" t="s">
+        <v>136</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
@@ -2418,16 +2605,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>14</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="28" t="s">
+        <v>135</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -2436,16 +2621,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>32</v>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="28" t="s">
+        <v>146</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C27" ca="1" si="0">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -2454,16 +2637,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>18</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -2472,16 +2653,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>37</v>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28" t="s">
+        <v>143</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -2490,16 +2669,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>139</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -2508,16 +2685,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -2526,16 +2701,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -2544,16 +2715,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>47</v>
-      </c>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="26"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -2562,16 +2729,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>50</v>
-      </c>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="26"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -2580,16 +2743,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>54</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
@@ -2598,16 +2757,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>67</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -2616,16 +2771,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -2634,16 +2785,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>86</v>
-      </c>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -2652,16 +2799,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>79</v>
-      </c>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -2670,16 +2813,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>77</v>
-      </c>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -2688,16 +2827,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>81</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -2706,16 +2841,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>83</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -2724,16 +2855,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>90</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -2742,16 +2869,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>88</v>
-      </c>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -2763,7 +2886,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
@@ -2775,7 +2898,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -2787,7 +2910,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
@@ -2799,7 +2922,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
@@ -2811,7 +2934,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -2823,7 +2946,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -2833,7 +2956,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A2:B21">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -2915,12 +3038,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection sqref="A1:E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
     <col min="2" max="2" width="137.125" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2947,11 +3071,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4">
-        <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>137</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C23" si="0">DATE(2018,1,12)</f>
+        <v>43112</v>
       </c>
       <c r="D2" t="s">
         <v>106</v>
@@ -2965,11 +3089,11 @@
         <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>147</v>
       </c>
       <c r="C3" s="3">
-        <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -2982,12 +3106,10 @@
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C27" ca="1" si="0">NOW()</f>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -3000,12 +3122,10 @@
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -3018,12 +3138,10 @@
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -3036,12 +3154,10 @@
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -3054,12 +3170,10 @@
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3072,12 +3186,10 @@
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -3090,12 +3202,10 @@
       <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -3108,12 +3218,10 @@
       <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -3126,12 +3234,10 @@
       <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
@@ -3144,12 +3250,10 @@
       <c r="A13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -3162,12 +3266,10 @@
       <c r="A14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -3180,12 +3282,10 @@
       <c r="A15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -3198,12 +3298,10 @@
       <c r="A16" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>70</v>
-      </c>
+      <c r="B16" s="14"/>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3216,12 +3314,10 @@
       <c r="A17" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3234,12 +3330,10 @@
       <c r="A18" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="B18" s="8"/>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -3252,12 +3346,10 @@
       <c r="A19" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -3270,12 +3362,10 @@
       <c r="A20" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="B20" s="14"/>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3288,12 +3378,10 @@
       <c r="A21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>80</v>
-      </c>
+      <c r="B21" s="8"/>
       <c r="C21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -3306,12 +3394,10 @@
       <c r="A22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B22" s="8"/>
       <c r="C22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
@@ -3324,12 +3410,10 @@
       <c r="A23" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="B23" s="8"/>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="0"/>
+        <v>43112</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -3342,12 +3426,10 @@
       <c r="A24" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ref="C4:C27" ca="1" si="1">NOW()</f>
+        <v>43112.353639930552</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
@@ -3360,12 +3442,10 @@
       <c r="A25" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43112.353639930552</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
@@ -3376,8 +3456,8 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43112.353639930552</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -3388,8 +3468,8 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>43112.353639930552</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -3399,7 +3479,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A12:B12">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -3473,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3486,10 +3566,10 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>103</v>
@@ -3503,14 +3583,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
       <c r="C3" s="4">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -3521,14 +3601,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>152</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">NOW()</f>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D4" t="s">
         <v>106</v>
@@ -3538,15 +3618,15 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
+      <c r="A5" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" ref="C5:C28" ca="1" si="0">NOW()</f>
-        <v>43103.688331365738</v>
+        <f t="shared" ref="C5:C8" ca="1" si="0">NOW()</f>
+        <v>43112.353639930552</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -3557,14 +3637,14 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D6" t="s">
         <v>106</v>
@@ -3575,14 +3655,14 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D7" t="s">
         <v>106</v>
@@ -3593,14 +3673,14 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <v>43112.353639930552</v>
       </c>
       <c r="D8" t="s">
         <v>106</v>
@@ -3610,15 +3690,15 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>17</v>
+      <c r="A9" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ref="C9:C16" si="1">DATE(2018,1,12)</f>
+        <v>43112</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -3629,14 +3709,14 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C10" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D10" t="s">
         <v>106</v>
@@ -3647,14 +3727,14 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D11" t="s">
         <v>106</v>
@@ -3663,16 +3743,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>57</v>
-      </c>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D12" t="s">
         <v>106</v>
@@ -3683,14 +3761,12 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>29</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D13" t="s">
         <v>106</v>
@@ -3701,14 +3777,12 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D14" t="s">
         <v>106</v>
@@ -3719,14 +3793,12 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -3737,14 +3809,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="1"/>
+        <v>43112</v>
       </c>
       <c r="D16" t="s">
         <v>106</v>
@@ -3754,15 +3824,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>42</v>
-      </c>
+      <c r="A17" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f>DATE(2018,1,12)</f>
+        <v>43112</v>
       </c>
       <c r="D17" t="s">
         <v>106</v>
@@ -3771,16 +3839,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>43</v>
-      </c>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="6"/>
       <c r="C18" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" ref="C18:C28" si="2">DATE(2018,1,12)</f>
+        <v>43112</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
@@ -3789,16 +3855,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>49</v>
-      </c>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
@@ -3807,16 +3871,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>58</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="13"/>
       <c r="C20" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D20" t="s">
         <v>106</v>
@@ -3825,16 +3887,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>60</v>
-      </c>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -3843,16 +3903,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>62</v>
-      </c>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D22" t="s">
         <v>106</v>
@@ -3861,16 +3919,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="6"/>
       <c r="C23" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D23" t="s">
         <v>106</v>
@@ -3879,16 +3935,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>89</v>
-      </c>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="6"/>
       <c r="C24" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D24" t="s">
         <v>106</v>
@@ -3897,16 +3951,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>94</v>
-      </c>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D25" t="s">
         <v>106</v>
@@ -3915,16 +3967,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>95</v>
-      </c>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -3933,16 +3983,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>100</v>
-      </c>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D27" t="s">
         <v>106</v>
@@ -3951,16 +3999,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>102</v>
-      </c>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="3">
-        <f t="shared" ca="1" si="0"/>
-        <v>43103.688331365738</v>
+        <f t="shared" si="2"/>
+        <v>43112</v>
       </c>
       <c r="D28" t="s">
         <v>106</v>
@@ -3970,7 +4016,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>